--- a/firedev-compilers.xlsx
+++ b/firedev-compilers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfilipiak/projects/npm/tsc-npm-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B289FF1-47BB-5442-A7E0-7FC1E38019BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B76647-2448-6047-93FE-48A11141DDCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>WHERE ACTIVATED</t>
   </si>
@@ -58,9 +58,6 @@
     <t>standalone</t>
   </si>
   <si>
-    <t>FILES WATCHING</t>
-  </si>
-  <si>
     <t>modify import,exports,requries - for better user understanding of framework import,export,require rules</t>
   </si>
   <si>
@@ -82,12 +79,6 @@
     <t>src</t>
   </si>
   <si>
-    <t>custom,src</t>
-  </si>
-  <si>
-    <t>custom, (baseline) src</t>
-  </si>
-  <si>
     <t>angular-lib</t>
   </si>
   <si>
@@ -97,18 +88,9 @@
     <t>components</t>
   </si>
   <si>
-    <t>custom,src,components</t>
-  </si>
-  <si>
-    <t>custom, baseline(src,components)</t>
-  </si>
-  <si>
     <t>angular-client</t>
   </si>
   <si>
-    <t>environment*.js files, node-modules replacements folders and zips</t>
-  </si>
-  <si>
     <t>Copyto Manager</t>
   </si>
   <si>
@@ -116,13 +98,156 @@
   </si>
   <si>
     <t>Copy distrbution to node modules of destination project</t>
+  </si>
+  <si>
+    <t>custom,src,baseline(src)</t>
+  </si>
+  <si>
+    <t>custom,src,components, baseline(src,components)</t>
+  </si>
+  <si>
+    <t>custom,src, baseline(src)</t>
+  </si>
+  <si>
+    <t>WHAT IS  WATCHING AND CHANGING</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">custom, (baseline) src </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; src</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>src -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; temp-src</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; temp-src</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">src </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; temp-src</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">custom, baseline(src,components) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; src,components</t>
+    </r>
+  </si>
+  <si>
+    <t>src/entities.ts,controllres.ts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">src </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; tmp-src-(dist|bundle)(-for-client-name)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>src -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; tmp-src-(dist|bundle)(-for-client-name)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">environment*.js files, node-modules replacements folders and zips </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; environments.name.js</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -207,30 +332,41 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF434343"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF434343"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -333,36 +469,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,15 +835,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
@@ -716,346 +853,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/firedev-compilers.xlsx
+++ b/firedev-compilers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfilipiak/projects/npm/tsc-npm-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B76647-2448-6047-93FE-48A11141DDCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB57934-F936-FA48-8FEA-6CE9200C04E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>WHERE ACTIVATED</t>
   </si>
@@ -85,28 +85,13 @@
     <t>src,components</t>
   </si>
   <si>
-    <t>components</t>
-  </si>
-  <si>
     <t>angular-client</t>
   </si>
   <si>
     <t>Copyto Manager</t>
   </si>
   <si>
-    <t>dist</t>
-  </si>
-  <si>
     <t>Copy distrbution to node modules of destination project</t>
-  </si>
-  <si>
-    <t>custom,src,baseline(src)</t>
-  </si>
-  <si>
-    <t>custom,src,components, baseline(src,components)</t>
-  </si>
-  <si>
-    <t>custom,src, baseline(src)</t>
   </si>
   <si>
     <t>WHAT IS  WATCHING AND CHANGING</t>
@@ -196,7 +181,52 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">src </t>
+      <t xml:space="preserve">environment*.js files, node-modules replacements folders and zips </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt; environments.name.js</t>
+    </r>
+  </si>
+  <si>
+    <t>dist/bundle</t>
+  </si>
+  <si>
+    <r>
+      <t>src -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; tmp-src-(dist|bundle)(-for-client-name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (excude *.backend.ts )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">components </t>
     </r>
     <r>
       <rPr>
@@ -209,10 +239,20 @@
       </rPr>
       <t>-&gt; tmp-src-(dist|bundle)(-for-client-name)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>src -</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (excude *.backend.ts )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>components -</t>
     </r>
     <r>
       <rPr>
@@ -223,12 +263,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt; tmp-src-(dist|bundle)(-for-client-name)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">environment*.js files, node-modules replacements folders and zips </t>
+      <t xml:space="preserve">&gt; tmp-src-(dist|bundle)(-for-client-name) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(excude *.backend.ts )</t>
+    </r>
+  </si>
+  <si>
+    <t>custom, baseline(src,components)</t>
+  </si>
+  <si>
+    <t>custom, baseline(src)</t>
+  </si>
+  <si>
+    <t>instance of compiler for each project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify result: </t>
+  </si>
+  <si>
+    <t>src,components,cusotm</t>
+  </si>
+  <si>
+    <t>temp-src</t>
+  </si>
+  <si>
+    <t>src, components</t>
+  </si>
+  <si>
+    <t>tmp-src-(dist|bundle)(-for-client-name)</t>
+  </si>
+  <si>
+    <t>node_moduels/package-name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">src  </t>
     </r>
     <r>
       <rPr>
@@ -239,15 +316,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-&gt; environments.name.js</t>
-    </r>
+      <t>-&gt; tmp-src-(dist|bundle)(-for-client-name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (excude *.backend.ts )</t>
+    </r>
+  </si>
+  <si>
+    <t>src (exclude controllers.ts, entites.ts, init ts files)</t>
+  </si>
+  <si>
+    <t>custom,baseline(src) (exclude controllers.ts, entites.ts,init ts files )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -364,6 +457,13 @@
     <font>
       <sz val="8"/>
       <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,7 +569,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,6 +601,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -833,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -883,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1010,7 +1113,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1018,9 +1121,11 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1037,12 +1142,12 @@
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1059,174 +1164,200 @@
         <v>16</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
+  <mergeCells count="11">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.74805555555555558" right="0.74805555555555558" top="1.3776388888888889" bottom="1.3776388888888889" header="0.98388888888888892" footer="0.98388888888888892"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
